--- a/notes/pin-define.xlsx
+++ b/notes/pin-define.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\streamdeck-n9h20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\streamdeck-n9h20\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4DD686D-67EE-4553-A273-1A96612E0B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC68D5A-C665-43B9-81B2-8CC21E66DD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{B5E6D3CE-A160-41DD-BCE2-3693FC5E104E}"/>
+    <workbookView xWindow="-210" yWindow="3758" windowWidth="23385" windowHeight="13507" xr2:uid="{B5E6D3CE-A160-41DD-BCE2-3693FC5E104E}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="242">
   <si>
     <t>#PIN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -972,6 +972,10 @@
   </si>
   <si>
     <t>SYSTEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUDIO/MCLK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1018,11 +1022,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1359,337 +1360,340 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83E0D97-D3A6-4154-A285-8286F5E8EAE8}">
-  <dimension ref="A1:R129"/>
+  <dimension ref="A1:S129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="12.53125" customWidth="1"/>
-    <col min="3" max="3" width="29.1328125" customWidth="1"/>
-    <col min="4" max="4" width="12.46484375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.73046875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.86328125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="21.59765625" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="13" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.19921875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="13" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="15" max="15" width="22.796875" customWidth="1"/>
-    <col min="16" max="17" width="12.46484375" customWidth="1"/>
-    <col min="18" max="18" width="44.796875" customWidth="1"/>
+    <col min="3" max="3" width="15.06640625" customWidth="1"/>
+    <col min="4" max="4" width="9.86328125" customWidth="1"/>
+    <col min="5" max="5" width="12.46484375" customWidth="1"/>
+    <col min="6" max="6" width="12.73046875" customWidth="1"/>
+    <col min="7" max="7" width="13.86328125" customWidth="1"/>
+    <col min="8" max="8" width="9.06640625" customWidth="1"/>
+    <col min="9" max="9" width="21.59765625" customWidth="1"/>
+    <col min="10" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="8.19921875" customWidth="1"/>
+    <col min="13" max="14" width="13" customWidth="1"/>
+    <col min="16" max="16" width="22.796875" customWidth="1"/>
+    <col min="17" max="18" width="12.46484375" customWidth="1"/>
+    <col min="19" max="19" width="44.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>240</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>222</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>223</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>224</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>26</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>34</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>36</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>38</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>40</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>44</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>46</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>51</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>46</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>46</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1697,332 +1701,332 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>210</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>69</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>68</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>67</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>66</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>65</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>70</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>72</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>75</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>74</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>78</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>79</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>80</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>81</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>83</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>84</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>86</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>87</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>89</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>90</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>92</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>94</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>93</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>95</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>98</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>102</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>103</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="R43" t="s">
         <v>100</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>104</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>109</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="R44" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>105</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>110</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="R45" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>106</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>107</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>108</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>120</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>123</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>124</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2030,18 +2034,18 @@
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>127</v>
       </c>
-      <c r="O53" t="s">
+      <c r="P53" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2049,18 +2053,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>129</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2068,103 +2072,103 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2172,142 +2176,142 @@
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>143</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>144</v>
       </c>
-      <c r="P70" t="s">
+      <c r="Q70" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>146</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>147</v>
       </c>
-      <c r="P71" t="s">
+      <c r="Q71" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>149</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>10</v>
       </c>
-      <c r="P72" t="s">
+      <c r="Q72" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>211</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>14</v>
       </c>
-      <c r="P73" t="s">
+      <c r="Q73" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>152</v>
       </c>
-      <c r="O74" t="s">
+      <c r="P74" t="s">
         <v>154</v>
       </c>
-      <c r="P74" t="s">
+      <c r="Q74" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>155</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>225</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>144</v>
       </c>
-      <c r="L78" t="s">
+      <c r="M78" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>232</v>
       </c>
-      <c r="L79" t="s">
+      <c r="M79" t="s">
         <v>227</v>
       </c>
-      <c r="M79" t="s">
+      <c r="N79" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>234</v>
       </c>
-      <c r="L80" t="s">
+      <c r="M80" t="s">
         <v>228</v>
       </c>
-      <c r="M80" t="s">
+      <c r="N80" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2315,10 +2319,10 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>229</v>
       </c>
-      <c r="L81" t="s">
+      <c r="M81" t="s">
         <v>230</v>
       </c>
     </row>
@@ -2326,22 +2330,18 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>213</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="J82" t="s">
         <v>147</v>
       </c>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2405,7 +2405,7 @@
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2437,7 +2437,7 @@
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2445,19 +2445,19 @@
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2465,196 +2465,196 @@
         <v>45</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>169</v>
       </c>
-      <c r="P99" t="s">
+      <c r="Q99" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>171</v>
       </c>
-      <c r="P100" t="s">
+      <c r="Q100" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>173</v>
       </c>
-      <c r="P101" t="s">
+      <c r="Q101" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>175</v>
       </c>
-      <c r="P102" t="s">
+      <c r="Q102" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>176</v>
       </c>
-      <c r="P103" t="s">
+      <c r="Q103" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>177</v>
       </c>
-      <c r="P104" t="s">
+      <c r="Q104" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>178</v>
       </c>
-      <c r="P105" t="s">
+      <c r="Q105" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>179</v>
       </c>
-      <c r="P106" t="s">
+      <c r="Q106" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>182</v>
       </c>
-      <c r="P107" t="s">
+      <c r="Q107" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>198</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>200</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>194</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>196</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>192</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>202</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>116</v>
       </c>
@@ -2662,141 +2662,141 @@
         <v>130</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>236</v>
       </c>
-      <c r="I118" t="s">
+      <c r="J118" t="s">
         <v>144</v>
       </c>
-      <c r="M118" t="s">
+      <c r="N118" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>238</v>
       </c>
-      <c r="M119" t="s">
+      <c r="N119" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>214</v>
       </c>
-      <c r="I120" t="s">
+      <c r="J120" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>216</v>
       </c>
-      <c r="I121" t="s">
+      <c r="J121" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>218</v>
       </c>
-      <c r="I122" t="s">
+      <c r="J122" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>220</v>
       </c>
-      <c r="I123" t="s">
+      <c r="J123" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>188</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>207</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
         <v>189</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>205</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>190</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>204</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>191</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
         <v>209</v>
       </c>
     </row>
